--- a/Exc2/Exc2_Проверочный лист для аудита ИБ.xlsx
+++ b/Exc2/Exc2_Проверочный лист для аудита ИБ.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>№</t>
   </si>
@@ -52,7 +52,57 @@
     <t>Реализован ли принцип минимальных привилегий при назначении ролей и прав доступа?</t>
   </si>
   <si>
-    <t>Нет информации, поэтому скорее всего нет. Нужно реализовать RBAC с принципом минимальных привелегий</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Нет координации между точками регистрации клиентов</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Системы PropDevelopment используют API управляющих компаний без единых политик по безопасности и без системного контроля за передаваемыми данными</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Некоторые контракты позволяют внешним пользователям выполнять действия и получать данные, к которым у них не должно быть доступа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>. Нужно реализовать RBAC с принципом минимальных привелегий</t>
+    </r>
   </si>
   <si>
     <t>Автоматически ли удаляются или деактивируются учётные записи после увольнения или изменения должности сотрудников?</t>
@@ -64,7 +114,23 @@
     <t>Ведётся ли журналирование всех операций доступа к системам и данным? Кто имеет доступ к журналам?</t>
   </si>
   <si>
-    <t>Журналирование повысит контроль над системой и ее наблюдаемость</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Внутренние потоки данных между IT-продуктами контролируются не системно. Некоторые контракты позволяют внешним пользователям выполнять действия и получать данные, к которым у них не должно быть доступа.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve"> Журналирование повысит контроль над системой и ее наблюдаемость.</t>
+    </r>
   </si>
   <si>
     <t>Используются ли механизмы контроля доступа на основе атрибутов для повышения гибкости управления доступом?</t>
@@ -85,7 +151,7 @@
     <t>Созданы ли замкнутые контуры для подсистем, работающих с чувствительными данными?</t>
   </si>
   <si>
-    <t>Внутренние потоки данных между IT продуктами контролируются не системно</t>
+    <t xml:space="preserve">Внутренние потоки данных между IT продуктами контролируются не системно. Со стороны систем обработки данных нет ограничений на доступ к данным. </t>
   </si>
   <si>
     <t>Ограничен ли доступ к системам из внешних источников?</t>
@@ -97,7 +163,40 @@
     <t>Ведётся ли единый реестр учётных записей?</t>
   </si>
   <si>
-    <t>Сервис авторизации используется только для Собственников и Клиентов. Помимо этого есть и другие типы УЗ которые стоило бы контролировать</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Есть несколько точек регистрации нового клиента, координации между этими точками нет. Внутренние потоки данных между IT-продуктами контролируются не системно</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Некоторые контракты позволяют внешним пользователям выполнять действия и получать данные, к которым у них не должно быть доступа</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>. Сервис авторизации используется только для Собственников и Клиентов. Помимо этого есть и другие типы УЗ которые стоило бы контролировать</t>
+    </r>
   </si>
   <si>
     <t>Используются ли средства управления учётными записями на базе единого реестра?</t>
@@ -109,13 +208,29 @@
     <t>Применяются ли средства для отзыва прав доступа?</t>
   </si>
   <si>
-    <t>Нет информации, поэтому скорее всего нет. Аудита нет. Нет пересмотра и отзыва прав доступа</t>
+    <t>Нет информации, поэтому скорее всего нет. Аудита нет. Нет пересмотра и отзыва прав доступа. Аудит безопасности и своевременный отзыв прав должен помочь компании предотвратить возможные инциденты</t>
   </si>
   <si>
     <t>Используются ли средства централизованного контроля доступа?</t>
   </si>
   <si>
-    <t>Контроль доступа осуществляется только для Клиентов и Собственников</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve">Некоторые контракты позволяют внешним пользователям выполнять действия и получать данные, к которым у них не должно быть доступа. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Контроль доступа осуществляется только для Клиентов и Собственников</t>
+    </r>
   </si>
   <si>
     <t>II. Безопасность данных</t>
@@ -130,7 +245,23 @@
     <t>Используется ли шифрование на уровне базы данных, файловой системы и при передаче данных по сети?</t>
   </si>
   <si>
-    <t xml:space="preserve">Нет информации. Нужно шифровать персональные и финансовые данные. </t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Контракты API содержат категории данных, которые явно предоставляют персональные данные</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>. Нужно шифровать персональные и финансовые данные на случай утечек.</t>
+    </r>
   </si>
   <si>
     <t>Реализованы ли механизмы управления ключами шифрования?</t>
@@ -142,21 +273,6 @@
     <t>Нет информации. При внедрении шифрования потребуется также подобный механизм</t>
   </si>
   <si>
-    <t>Проводится ли регулярное резервное копирование данных? Хранятся ли резервные копии в защищённых хранилищах?</t>
-  </si>
-  <si>
-    <t>Нет информации о защищенности копий. Нужна защита</t>
-  </si>
-  <si>
-    <t>Выполняется ли регулярное тестирование процесса восстановления данных из резервных копий?</t>
-  </si>
-  <si>
-    <t>Нет информации, скорее всего нет</t>
-  </si>
-  <si>
-    <t>Ограничен ли доступ к резервным копиям данных, и зашифрованы ли они?</t>
-  </si>
-  <si>
     <t>Ведётся ли учёт персональных данных, и применяются ли специальные процедуры обработки и хранения для различных типов данных (общедоступные, конфиденциальные, критически важные)?</t>
   </si>
   <si>
@@ -169,28 +285,10 @@
     <t>Классификация сделана в рамках первого задания. Считаем что ее не было, а значит и доступа на основе классификации нет</t>
   </si>
   <si>
-    <t>Разработаны ли процессы и системы Data Governance для управления данными?</t>
-  </si>
-  <si>
-    <t>Нет информации</t>
-  </si>
-  <si>
-    <t>Реализованы ли системы или процессы безопасного уничтожения данных?</t>
-  </si>
-  <si>
-    <t>Используются ли системы или процессы контроля целостности данных?</t>
-  </si>
-  <si>
-    <t>Реализованы ли системы или процессы контроля сохранности данных?</t>
-  </si>
-  <si>
     <t>Применяются ли средства или процессы анонимизации данных?</t>
   </si>
   <si>
-    <t>Для того чтобы использовать данные для аналитики нужно их обезличить</t>
-  </si>
-  <si>
-    <t>Разработана ли инструкция по процессу восстановления данных?</t>
+    <t>Для того чтобы использовать данные для аналитики нужно их обезличить. Не в приоритете у компании</t>
   </si>
   <si>
     <t>III. Защита инфраструктуры</t>
@@ -199,61 +297,115 @@
     <t>Используется ли межсетевой экран для ограничения входящего и исходящего трафика?</t>
   </si>
   <si>
-    <t>Используются ли IDS/IPS-системы для обнаружения и предотвращения сетевых атак?</t>
-  </si>
-  <si>
     <t>Настроен ли мониторинг сетевого трафика на предмет аномалий и возможных атак, например, DDoS?</t>
   </si>
   <si>
-    <t>Нет информации. Firewall не может полностью защитить от DDoS</t>
+    <t>Нет информации. Firewall не может полностью защитить от DDoS.</t>
   </si>
   <si>
     <t>Проводится ли регулярное сканирование уязвимостей операционных систем, приложений и сетевых устройств?</t>
   </si>
   <si>
-    <t xml:space="preserve">Нет информации. Стоит ввести анализ уязвимостей на уровне кода, например с помощью Trivy. </t>
-  </si>
-  <si>
-    <t>Используются ли механизмы контроля целостности системных файлов, и ведётся ли журналирование доступа к системным ресурсам?</t>
+    <t>Нет информации. Стоит ввести анализ уязвимостей на уровне кода, например с помощью Trivy. На будущее</t>
   </si>
   <si>
     <t>Проводятся ли автоматизированные сканирования облачных инфраструктур на соответствие рекомендациям безопасности?</t>
   </si>
   <si>
-    <t>Могут быть использованы облачные ресурсы, но наверное это ответственность провайдера</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Могут быть использованы облачные ресурсы, но наверное это ответственность провайдера (</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Сервисы компании развёрнуты в приватном облаке, имеется собственный ЦОД и используются мощности, арендованные у облачного провайдера</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>Используются ли средства для контроля периметра доступа?</t>
   </si>
   <si>
-    <t>Нужно реализовать RBAC с ограничением доступа</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve">Внутренние потоки данных между IT-продуктами контролируются не системно. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Нужно реализовать RBAC с ограничением доступа</t>
+    </r>
   </si>
   <si>
     <t>IV.  Управление инцидентами</t>
   </si>
   <si>
-    <t>Используется ли система мониторинга безопасности (SIEM) для корреляции событий и анализа аномалий в режиме реального времени?</t>
-  </si>
-  <si>
-    <t>Настроены ли автоматические оповещения об инцидентах и подозрительной активности (например, попытках несанкционированного доступа)?</t>
-  </si>
-  <si>
-    <t>Разработан ли план реагирования на инциденты, включающий анализ, эскалацию и восстановление системы? Проводится ли обучение сотрудников по его использованию?</t>
-  </si>
-  <si>
-    <t>Проводятся ли симуляции инцидентов (учения) для проверки готовности сотрудников к реагированию на кибератаки?</t>
-  </si>
-  <si>
     <t>Ведется ли статистика по всем зарегистрированным инцидентам и используются ли результаты анализа для корректировки политики безопасности?</t>
   </si>
   <si>
-    <t>Нет информации, скорее всего нет. Журналирование и сбор событий, статистики позволят своевременно реагировать на инциденты и изменять политики безопасности</t>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>PropDevelopment хочет реагировать на инциденты и проводить аудит</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>. Журналирование и сбор событий, статистики позволят своевременно реагировать на инциденты и изменять политики безопасности</t>
+    </r>
   </si>
   <si>
     <t>Как часто проводятся внутренние и внешние аудиты безопасности, и обновляются ли политики и процедуры на основе результатов этих аудитов?</t>
   </si>
   <si>
-    <t>Только в планах</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t xml:space="preserve">Только в планах, но как только так сразу. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Liberation Sans"/>
+      </rPr>
+      <t>Недавно у конкурента произошла утечка данных, которая активно обсуждалась в СМИ. Аудит безопасности должен помочь компании предотвратить подобные инциденты</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -378,7 +530,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -403,19 +555,16 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,9 +737,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -654,12 +803,12 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
           <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
@@ -670,7 +819,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -697,10 +846,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -939,17 +1088,17 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -1227,7 +1376,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1254,10 +1403,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1499,7 +1648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1508,7 +1657,7 @@
     <col min="1" max="1" width="7.8125" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.2109" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.8125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.8125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="146.789" style="1" customWidth="1"/>
     <col min="5" max="16384" width="10.6016" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1541,10 +1690,10 @@
       <c r="B3" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="8">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="9">
+      <c r="C3" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="8">
         <v>7</v>
       </c>
     </row>
@@ -1555,10 +1704,10 @@
       <c r="B4" t="s" s="7">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s" s="9">
+      <c r="C4" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s" s="8">
         <v>9</v>
       </c>
     </row>
@@ -1569,10 +1718,10 @@
       <c r="B5" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C5" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s" s="9">
+      <c r="C5" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s" s="8">
         <v>11</v>
       </c>
     </row>
@@ -1583,10 +1732,10 @@
       <c r="B6" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s" s="9">
+      <c r="C6" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s" s="8">
         <v>13</v>
       </c>
     </row>
@@ -1597,10 +1746,10 @@
       <c r="B7" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="C7" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s" s="9">
+      <c r="C7" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s" s="8">
         <v>15</v>
       </c>
     </row>
@@ -1611,10 +1760,10 @@
       <c r="B8" t="s" s="7">
         <v>16</v>
       </c>
-      <c r="C8" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s" s="9">
+      <c r="C8" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s" s="8">
         <v>17</v>
       </c>
     </row>
@@ -1625,10 +1774,10 @@
       <c r="B9" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="C9" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s" s="9">
+      <c r="C9" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="8">
         <v>19</v>
       </c>
     </row>
@@ -1639,10 +1788,10 @@
       <c r="B10" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="C10" t="s" s="9">
+      <c r="C10" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="D10" t="s" s="9">
+      <c r="D10" t="s" s="8">
         <v>22</v>
       </c>
     </row>
@@ -1653,7 +1802,7 @@
       <c r="B11" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="C11" t="s" s="9">
+      <c r="C11" t="s" s="8">
         <v>6</v>
       </c>
       <c r="D11" t="s" s="9">
@@ -1667,10 +1816,10 @@
       <c r="B12" t="s" s="7">
         <v>25</v>
       </c>
-      <c r="C12" t="s" s="9">
+      <c r="C12" t="s" s="8">
         <v>21</v>
       </c>
-      <c r="D12" t="s" s="9">
+      <c r="D12" t="s" s="8">
         <v>26</v>
       </c>
     </row>
@@ -1681,10 +1830,10 @@
       <c r="B13" t="s" s="7">
         <v>27</v>
       </c>
-      <c r="C13" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D13" t="s" s="9">
+      <c r="C13" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s" s="8">
         <v>28</v>
       </c>
     </row>
@@ -1695,10 +1844,10 @@
       <c r="B14" t="s" s="7">
         <v>29</v>
       </c>
-      <c r="C14" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s" s="9">
+      <c r="C14" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s" s="8">
         <v>30</v>
       </c>
     </row>
@@ -1709,10 +1858,10 @@
       <c r="B15" t="s" s="7">
         <v>31</v>
       </c>
-      <c r="C15" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s" s="9">
+      <c r="C15" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s" s="8">
         <v>32</v>
       </c>
     </row>
@@ -1723,10 +1872,10 @@
       <c r="B16" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="C16" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s" s="9">
+      <c r="C16" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s" s="8">
         <v>34</v>
       </c>
     </row>
@@ -1745,10 +1894,10 @@
       <c r="B18" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="C18" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s" s="9">
+      <c r="C18" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s" s="8">
         <v>37</v>
       </c>
     </row>
@@ -1759,10 +1908,10 @@
       <c r="B19" t="s" s="7">
         <v>38</v>
       </c>
-      <c r="C19" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s" s="9">
+      <c r="C19" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s" s="8">
         <v>39</v>
       </c>
     </row>
@@ -1773,367 +1922,175 @@
       <c r="B20" t="s" s="7">
         <v>40</v>
       </c>
-      <c r="C20" t="s" s="9">
+      <c r="C20" t="s" s="8">
         <v>41</v>
       </c>
-      <c r="D20" t="s" s="9">
+      <c r="D20" t="s" s="8">
         <v>42</v>
       </c>
     </row>
-    <row r="21" ht="82.5" customHeight="1">
+    <row r="21" ht="125.25" customHeight="1">
       <c r="A21" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s" s="7">
         <v>43</v>
       </c>
-      <c r="C21" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="D21" t="s" s="9">
+      <c r="C21" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="22" ht="64.5" customHeight="1">
+    <row r="22" ht="90" customHeight="1">
       <c r="A22" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s" s="7">
         <v>45</v>
       </c>
-      <c r="C22" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s" s="9">
+      <c r="C22" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s" s="8">
         <v>46</v>
       </c>
     </row>
-    <row r="23" ht="56.25" customHeight="1">
+    <row r="23" ht="51" customHeight="1">
       <c r="A23" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s" s="7">
         <v>47</v>
       </c>
-      <c r="C23" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" ht="125.25" customHeight="1">
-      <c r="A24" s="6">
-        <v>7</v>
-      </c>
-      <c r="B24" t="s" s="7">
+      <c r="C23" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s" s="8">
         <v>48</v>
       </c>
-      <c r="C24" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s" s="9">
+    </row>
+    <row r="24" ht="29.25" customHeight="1">
+      <c r="A24" t="s" s="10">
         <v>49</v>
       </c>
-    </row>
-    <row r="25" ht="90" customHeight="1">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" ht="69" customHeight="1">
       <c r="A25" s="6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s" s="7">
         <v>50</v>
       </c>
-      <c r="C25" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s" s="9">
+      <c r="C25" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" ht="70.5" customHeight="1">
+      <c r="A26" s="6">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s" s="7">
         <v>51</v>
       </c>
-    </row>
-    <row r="26" ht="55.5" customHeight="1">
-      <c r="A26" s="6">
+      <c r="C26" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s" s="8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" ht="80.25" customHeight="1">
+      <c r="A27" s="6">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s" s="7">
+        <v>53</v>
+      </c>
+      <c r="C27" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s" s="8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" ht="93.75" customHeight="1">
+      <c r="A28" s="6">
         <v>9</v>
-      </c>
-      <c r="B26" t="s" s="7">
-        <v>52</v>
-      </c>
-      <c r="C26" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" ht="51.75" customHeight="1">
-      <c r="A27" s="6">
-        <v>10</v>
-      </c>
-      <c r="B27" t="s" s="7">
-        <v>54</v>
-      </c>
-      <c r="C27" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" ht="53.25" customHeight="1">
-      <c r="A28" s="6">
-        <v>11</v>
       </c>
       <c r="B28" t="s" s="7">
         <v>55</v>
       </c>
-      <c r="C28" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" ht="52.5" customHeight="1">
+      <c r="C28" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s" s="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" ht="54.75" customHeight="1">
       <c r="A29" s="6">
         <v>12</v>
       </c>
       <c r="B29" t="s" s="7">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" ht="51" customHeight="1">
-      <c r="A30" s="6">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s" s="7">
         <v>57</v>
       </c>
-      <c r="C30" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s" s="9">
+      <c r="C29" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s" s="8">
         <v>58</v>
       </c>
     </row>
-    <row r="31" ht="48.75" customHeight="1">
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" ht="88.5" customHeight="1">
       <c r="A31" s="6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s" s="7">
-        <v>59</v>
-      </c>
-      <c r="C31" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" ht="29.25" customHeight="1">
-      <c r="A32" t="s" s="10">
         <v>60</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" ht="69" customHeight="1">
-      <c r="A33" s="6">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s" s="7">
+      <c r="C31" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s" s="8">
         <v>61</v>
       </c>
-      <c r="C33" t="s" s="9">
-        <v>21</v>
-      </c>
-      <c r="D33" t="s" s="9">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" ht="80.25" customHeight="1">
-      <c r="A34" s="6">
-        <v>3</v>
-      </c>
-      <c r="B34" t="s" s="7">
+    </row>
+    <row r="32" ht="90.75" customHeight="1">
+      <c r="A32" s="6">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s" s="7">
         <v>62</v>
       </c>
-      <c r="C34" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s" s="9">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" ht="70.5" customHeight="1">
-      <c r="A35" s="6">
-        <v>4</v>
-      </c>
-      <c r="B35" t="s" s="7">
+      <c r="C32" t="s" s="8">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s" s="8">
         <v>63</v>
-      </c>
-      <c r="C35" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D35" t="s" s="9">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" ht="80.25" customHeight="1">
-      <c r="A36" s="6">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s" s="9">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" ht="78.75" customHeight="1">
-      <c r="A37" s="6">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s" s="7">
-        <v>67</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" ht="93.75" customHeight="1">
-      <c r="A38" s="6">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s" s="7">
-        <v>68</v>
-      </c>
-      <c r="C38" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D38" t="s" s="9">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="39" ht="54.75" customHeight="1">
-      <c r="A39" s="6">
-        <v>12</v>
-      </c>
-      <c r="B39" t="s" s="7">
-        <v>70</v>
-      </c>
-      <c r="C39" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s" s="9">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" ht="24.75" customHeight="1">
-      <c r="A40" t="s" s="10">
-        <v>72</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" ht="82.5" customHeight="1">
-      <c r="A41" s="6">
-        <v>1</v>
-      </c>
-      <c r="B41" t="s" s="7">
-        <v>73</v>
-      </c>
-      <c r="C41" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D41" t="s" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" ht="101.25" customHeight="1">
-      <c r="A42" s="6">
-        <v>2</v>
-      </c>
-      <c r="B42" t="s" s="7">
-        <v>74</v>
-      </c>
-      <c r="C42" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="43" ht="105.75" customHeight="1">
-      <c r="A43" s="6">
-        <v>3</v>
-      </c>
-      <c r="B43" t="s" s="7">
-        <v>75</v>
-      </c>
-      <c r="C43" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D43" t="s" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" ht="80.25" customHeight="1">
-      <c r="A44" s="6">
-        <v>4</v>
-      </c>
-      <c r="B44" t="s" s="7">
-        <v>76</v>
-      </c>
-      <c r="C44" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s" s="9">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" ht="88.5" customHeight="1">
-      <c r="A45" s="6">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s" s="7">
-        <v>77</v>
-      </c>
-      <c r="C45" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D45" t="s" s="9">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" ht="90.75" customHeight="1">
-      <c r="A46" s="6">
-        <v>6</v>
-      </c>
-      <c r="B46" t="s" s="7">
-        <v>79</v>
-      </c>
-      <c r="C46" t="s" s="9">
-        <v>6</v>
-      </c>
-      <c r="D46" t="s" s="9">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811" footer="0.511811"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
